--- a/صيدليات دكتور مصطفي طلعت_2025-12-24_10-11.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2025-12-24_10-11.xlsx
@@ -44,7 +44,7 @@
     <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
   </si>
   <si>
-    <t>2:0</t>
+    <t>1:0</t>
   </si>
   <si>
     <t>1</t>
@@ -56,22 +56,28 @@
     <t>32.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>1.2.3 EXTRA TAB</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
     <t>50.00</t>
   </si>
   <si>
-    <t>50.0000</t>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
   </si>
   <si>
     <t>QANDOVERAL 200 MG 40 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
   </si>
   <si>
     <t>812.00</t>
@@ -766,7 +772,7 @@
         <v>14</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -775,14 +781,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -799,7 +805,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -808,14 +814,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -825,14 +831,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -841,7 +847,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -858,14 +864,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -874,7 +880,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -891,19 +897,19 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="26.25" customHeight="1">
       <c r="N12" s="13">
-        <v>1154</v>
+        <v>1129</v>
       </c>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
@@ -911,7 +917,7 @@
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c t="s" r="A13" s="14">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -919,13 +925,13 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c t="s" r="G13" s="15">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
       <c t="s" r="K13" s="17">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
